--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H2">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I2">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J2">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>29.62480367482502</v>
+        <v>1.007336247302</v>
       </c>
       <c r="R2">
-        <v>29.62480367482502</v>
+        <v>9.066026225718</v>
       </c>
       <c r="S2">
-        <v>0.04473863011870832</v>
+        <v>0.001238760143984131</v>
       </c>
       <c r="T2">
-        <v>0.04473863011870832</v>
+        <v>0.001399011736834166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H3">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I3">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J3">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>53.27942592232117</v>
+        <v>1.552166156529333</v>
       </c>
       <c r="R3">
-        <v>53.27942592232117</v>
+        <v>13.969495408764</v>
       </c>
       <c r="S3">
-        <v>0.08046124306644628</v>
+        <v>0.001908758447538647</v>
       </c>
       <c r="T3">
-        <v>0.08046124306644628</v>
+        <v>0.002155684039284152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H4">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I4">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J4">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>23.47895294436533</v>
+        <v>0.6731814907136665</v>
       </c>
       <c r="R4">
-        <v>23.47895294436533</v>
+        <v>6.058633416423</v>
       </c>
       <c r="S4">
-        <v>0.03545732160396241</v>
+        <v>0.0008278371820704537</v>
       </c>
       <c r="T4">
-        <v>0.03545732160396241</v>
+        <v>0.0009349299293561414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H5">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I5">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J5">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>38.65763690232179</v>
+        <v>1.137781365401333</v>
       </c>
       <c r="R5">
-        <v>38.65763690232179</v>
+        <v>10.240032288612</v>
       </c>
       <c r="S5">
-        <v>0.05837978666862911</v>
+        <v>0.001399173525028993</v>
       </c>
       <c r="T5">
-        <v>0.05837978666862911</v>
+        <v>0.001580176915514542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H6">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I6">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J6">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>11.71946586110892</v>
+        <v>0.3905488259715</v>
       </c>
       <c r="R6">
-        <v>11.71946586110892</v>
+        <v>2.343292955829</v>
       </c>
       <c r="S6">
-        <v>0.01769844128265193</v>
+        <v>0.0004802729189871455</v>
       </c>
       <c r="T6">
-        <v>0.01769844128265193</v>
+        <v>0.0003616021249470813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H7">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I7">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J7">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>29.57231388375204</v>
+        <v>40.77007836670267</v>
       </c>
       <c r="R7">
-        <v>29.57231388375204</v>
+        <v>366.930705300324</v>
       </c>
       <c r="S7">
-        <v>0.04465936136224335</v>
+        <v>0.050136534134505</v>
       </c>
       <c r="T7">
-        <v>0.04465936136224335</v>
+        <v>0.05662242205562745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H8">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I8">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J8">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>53.18502442127333</v>
+        <v>62.82106497143912</v>
       </c>
       <c r="R8">
-        <v>53.18502442127333</v>
+        <v>565.389584742952</v>
       </c>
       <c r="S8">
-        <v>0.08031868030436395</v>
+        <v>0.07725348084880918</v>
       </c>
       <c r="T8">
-        <v>0.08031868030436395</v>
+        <v>0.08724733915895345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H9">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I9">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J9">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>23.43735248860571</v>
+        <v>27.24578034883489</v>
       </c>
       <c r="R9">
-        <v>23.43735248860571</v>
+        <v>245.212023139514</v>
       </c>
       <c r="S9">
-        <v>0.03539449764659789</v>
+        <v>0.03350518446872103</v>
       </c>
       <c r="T9">
-        <v>0.03539449764659789</v>
+        <v>0.03783956607271586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H10">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I10">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J10">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>38.58914256539215</v>
+        <v>46.04960414740178</v>
       </c>
       <c r="R10">
-        <v>38.58914256539215</v>
+        <v>414.446437326616</v>
       </c>
       <c r="S10">
-        <v>0.05827634825132322</v>
+        <v>0.05662897013468205</v>
       </c>
       <c r="T10">
-        <v>0.05827634825132322</v>
+        <v>0.06395474882526295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H11">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I11">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J11">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>11.69870108841073</v>
+        <v>15.806744057437</v>
       </c>
       <c r="R11">
-        <v>11.69870108841073</v>
+        <v>94.84046434462202</v>
       </c>
       <c r="S11">
-        <v>0.01766708284748926</v>
+        <v>0.01943816138549082</v>
       </c>
       <c r="T11">
-        <v>0.01766708284748926</v>
+        <v>0.01463517967425914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H12">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I12">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J12">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>29.98843244328203</v>
+        <v>44.32876187036733</v>
       </c>
       <c r="R12">
-        <v>29.98843244328203</v>
+        <v>398.958856833306</v>
       </c>
       <c r="S12">
-        <v>0.04528777309872896</v>
+        <v>0.05451278417137274</v>
       </c>
       <c r="T12">
-        <v>0.04528777309872896</v>
+        <v>0.06156480351230543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H13">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I13">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J13">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>53.93340264550512</v>
+        <v>68.30450519408755</v>
       </c>
       <c r="R13">
-        <v>53.93340264550512</v>
+        <v>614.740546746788</v>
       </c>
       <c r="S13">
-        <v>0.08144886219283515</v>
+        <v>0.08399667828455071</v>
       </c>
       <c r="T13">
-        <v>0.08144886219283515</v>
+        <v>0.09486286699314032</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H14">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I14">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J14">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>23.76714465147442</v>
+        <v>29.62397320389343</v>
       </c>
       <c r="R14">
-        <v>23.76714465147442</v>
+        <v>266.6157588350409</v>
       </c>
       <c r="S14">
-        <v>0.03589254143964995</v>
+        <v>0.03642973973161841</v>
       </c>
       <c r="T14">
-        <v>0.03589254143964995</v>
+        <v>0.04114245497956624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H15">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I15">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J15">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>39.13213891261512</v>
+        <v>50.06911976264488</v>
       </c>
       <c r="R15">
-        <v>39.13213891261512</v>
+        <v>450.622077863804</v>
       </c>
       <c r="S15">
-        <v>0.05909636761755659</v>
+        <v>0.06157192315123546</v>
       </c>
       <c r="T15">
-        <v>0.05909636761755659</v>
+        <v>0.06953714451208014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H16">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I16">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J16">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>11.86331609501513</v>
+        <v>17.1864617714405</v>
       </c>
       <c r="R16">
-        <v>11.86331609501513</v>
+        <v>103.118770628643</v>
       </c>
       <c r="S16">
-        <v>0.01791568027190769</v>
+        <v>0.02113485334771704</v>
       </c>
       <c r="T16">
-        <v>0.01791568027190769</v>
+        <v>0.01591263545963949</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H17">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I17">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J17">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>35.95332162070884</v>
+        <v>39.67098997563533</v>
       </c>
       <c r="R17">
-        <v>35.95332162070884</v>
+        <v>357.038909780718</v>
       </c>
       <c r="S17">
-        <v>0.05429579804759171</v>
+        <v>0.04878494284885788</v>
       </c>
       <c r="T17">
-        <v>0.05429579804759171</v>
+        <v>0.05509598283233958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H18">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I18">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J18">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>64.66109807774986</v>
+        <v>61.12752142208489</v>
       </c>
       <c r="R18">
-        <v>64.66109807774986</v>
+        <v>550.147692798764</v>
       </c>
       <c r="S18">
-        <v>0.09764955682822966</v>
+        <v>0.07517086518133931</v>
       </c>
       <c r="T18">
-        <v>0.09764955682822966</v>
+        <v>0.08489530694653966</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H19">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I19">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J19">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>28.49458027779627</v>
+        <v>26.5112828426581</v>
       </c>
       <c r="R19">
-        <v>28.49458027779627</v>
+        <v>238.601545583923</v>
       </c>
       <c r="S19">
-        <v>0.04303179529657079</v>
+        <v>0.03260194462309404</v>
       </c>
       <c r="T19">
-        <v>0.04303179529657079</v>
+        <v>0.03681947905155591</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H20">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I20">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J20">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>46.91576922843414</v>
+        <v>44.80818918429022</v>
       </c>
       <c r="R20">
-        <v>46.91576922843414</v>
+        <v>403.273702658612</v>
       </c>
       <c r="S20">
-        <v>0.07085100948801445</v>
+        <v>0.05510235438689482</v>
       </c>
       <c r="T20">
-        <v>0.07085100948801445</v>
+        <v>0.06223064318692594</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.194497666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.583493</v>
+      </c>
+      <c r="I21">
+        <v>0.2305742503619801</v>
+      </c>
+      <c r="J21">
+        <v>0.2532820534242055</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.8762265</v>
+      </c>
+      <c r="N21">
+        <v>25.752453</v>
+      </c>
+      <c r="O21">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P21">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q21">
+        <v>15.3806225097215</v>
+      </c>
+      <c r="R21">
+        <v>92.283735058329</v>
+      </c>
+      <c r="S21">
+        <v>0.01891414332179402</v>
+      </c>
+      <c r="T21">
+        <v>0.01424064140684438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.39337</v>
+      </c>
+      <c r="H22">
+        <v>2.78674</v>
+      </c>
+      <c r="I22">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J22">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.211442</v>
+      </c>
+      <c r="N22">
+        <v>99.634326</v>
+      </c>
+      <c r="O22">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P22">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q22">
+        <v>46.27582693954</v>
+      </c>
+      <c r="R22">
+        <v>277.65496163724</v>
+      </c>
+      <c r="S22">
+        <v>0.05690716500686321</v>
+      </c>
+      <c r="T22">
+        <v>0.04284595482625304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.39337</v>
+      </c>
+      <c r="H23">
+        <v>2.78674</v>
+      </c>
+      <c r="I23">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J23">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N23">
+        <v>153.522748</v>
+      </c>
+      <c r="O23">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P23">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q23">
+        <v>71.30466379358667</v>
+      </c>
+      <c r="R23">
+        <v>427.82798276152</v>
+      </c>
+      <c r="S23">
+        <v>0.08768608875562706</v>
+      </c>
+      <c r="T23">
+        <v>0.06601970414905231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.39337</v>
+      </c>
+      <c r="H24">
+        <v>2.78674</v>
+      </c>
+      <c r="I24">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J24">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N24">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P24">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q24">
+        <v>30.92515557402333</v>
+      </c>
+      <c r="R24">
+        <v>185.55093344414</v>
+      </c>
+      <c r="S24">
+        <v>0.03802985375956968</v>
+      </c>
+      <c r="T24">
+        <v>0.02863304464446642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.38332846298339</v>
-      </c>
-      <c r="H21">
-        <v>1.38332846298339</v>
-      </c>
-      <c r="I21">
-        <v>0.287307382226906</v>
-      </c>
-      <c r="J21">
-        <v>0.287307382226906</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="N21">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="O21">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="P21">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="Q21">
-        <v>14.22300481557049</v>
-      </c>
-      <c r="R21">
-        <v>14.22300481557049</v>
-      </c>
-      <c r="S21">
-        <v>0.02147922256649939</v>
-      </c>
-      <c r="T21">
-        <v>0.02147922256649939</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.39337</v>
+      </c>
+      <c r="H25">
+        <v>2.78674</v>
+      </c>
+      <c r="I25">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J25">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N25">
+        <v>112.536484</v>
+      </c>
+      <c r="O25">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P25">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q25">
+        <v>52.26832023702666</v>
+      </c>
+      <c r="R25">
+        <v>313.60992142216</v>
+      </c>
+      <c r="S25">
+        <v>0.064276364596276</v>
+      </c>
+      <c r="T25">
+        <v>0.04839429645732083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.39337</v>
+      </c>
+      <c r="H26">
+        <v>2.78674</v>
+      </c>
+      <c r="I26">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J26">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.8762265</v>
+      </c>
+      <c r="N26">
+        <v>25.752453</v>
+      </c>
+      <c r="O26">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P26">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q26">
+        <v>17.941347718305</v>
+      </c>
+      <c r="R26">
+        <v>71.76539087322001</v>
+      </c>
+      <c r="S26">
+        <v>0.02206316564337209</v>
+      </c>
+      <c r="T26">
+        <v>0.01107438050921532</v>
       </c>
     </row>
   </sheetData>
